--- a/ProjectDocuments/Project Timeline - Gantt Chart.xlsx
+++ b/ProjectDocuments/Project Timeline - Gantt Chart.xlsx
@@ -59,12 +59,6 @@
     <t>Together</t>
   </si>
   <si>
-    <t>Software process model</t>
-  </si>
-  <si>
-    <t>Feasibility report</t>
-  </si>
-  <si>
     <t>Textual description of each use case</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t xml:space="preserve">        Deliverable 1</t>
+  </si>
+  <si>
+    <t>Software process model document</t>
+  </si>
+  <si>
+    <t>Feasibility study</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -243,15 +243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -291,17 +282,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -352,7 +332,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -369,13 +349,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,13 +361,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -398,32 +375,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -483,7 +460,7 @@
         <xdr:cNvPr id="8" name="Flowchart: Process 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD1D6C07-CA94-46E9-B26C-C8B90D222DDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D6C07-CA94-46E9-B26C-C8B90D222DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -595,15 +572,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -611,7 +588,7 @@
         <xdr:cNvPr id="12" name="Flowchart: Process 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD1D6C07-CA94-46E9-B26C-C8B90D222DDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D6C07-CA94-46E9-B26C-C8B90D222DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,25 +637,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209383</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>346974</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150292</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353157</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Triangle 12"/>
+        <xdr:cNvPr id="6" name="Triangle 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12070080" y="2926080"/>
+          <a:off x="9383863" y="2720723"/>
           <a:ext cx="143774" cy="119812"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -1021,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T22"/>
+  <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,119 +1014,92 @@
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="13">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="11">
         <v>43795</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>43796</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>43802</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>43803</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>43806</v>
       </c>
-      <c r="K3" s="13">
-        <v>43800</v>
-      </c>
-      <c r="L3" s="13">
-        <v>43801</v>
-      </c>
-      <c r="M3" s="13">
-        <v>43802</v>
-      </c>
-      <c r="N3" s="13">
-        <v>43803</v>
-      </c>
-      <c r="O3" s="13">
-        <v>43804</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="K3" s="11">
         <v>43807</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="L3" s="11">
         <v>43808</v>
       </c>
-      <c r="R3" s="13">
+      <c r="M3" s="11">
         <v>43809</v>
       </c>
-      <c r="S3" s="13">
+      <c r="N3" s="11">
         <v>43810</v>
       </c>
-      <c r="T3" s="19">
+      <c r="O3" s="16">
         <v>43811</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>23</v>
+      <c r="C4" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="20"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1157,399 +1107,320 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
       <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
+      <c r="C8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="27"/>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="22" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="7"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="25"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="2" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="25"/>
+      <c r="C18" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="21"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="30"/>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="30"/>
-      <c r="C18" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="31"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="26"/>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
